--- a/Proyecto/Data/GenData.xlsx
+++ b/Proyecto/Data/GenData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Proyecto\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA9D9BE-E5A1-4F50-9AD6-CC0E023F5C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F18F11-27B5-47C9-B142-8B6922B08BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{16BA8811-11E7-45E3-9022-F87FA0B716A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{16BA8811-11E7-45E3-9022-F87FA0B716A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
     <sheet name="Products" sheetId="2" r:id="rId2"/>
+    <sheet name="Orders" sheetId="3" r:id="rId3"/>
+    <sheet name="OrderDetails" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="209">
   <si>
     <t>Id</t>
   </si>
@@ -610,6 +612,60 @@
   </si>
   <si>
     <t>,'</t>
+  </si>
+  <si>
+    <t>CustomerId</t>
+  </si>
+  <si>
+    <t>DeliveryFullName</t>
+  </si>
+  <si>
+    <t>DeliveryAddress</t>
+  </si>
+  <si>
+    <t>DeliveryPhoneNumber</t>
+  </si>
+  <si>
+    <t>TotalPrice</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Tocar el Timbre</t>
+  </si>
+  <si>
+    <t>Pilas con el Perro que es Bravo</t>
+  </si>
+  <si>
+    <t>Traer Vuelta de un billete de 50</t>
+  </si>
+  <si>
+    <t>Sin Salsas</t>
+  </si>
+  <si>
+    <t>OrderId</t>
+  </si>
+  <si>
+    <t>ProductId</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>PriceOrd</t>
+  </si>
+  <si>
+    <t>INSERT INTO `arepasdb`.`orders` ( `CustomerId`, `DeliveryFullName`, `DeliveryAddress`, `DeliveryPhoneNumber`, `TotalPrice`, `Notes`) VALUES (</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1035,7 @@
   <dimension ref="A1:W104"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W21"/>
+      <selection activeCell="S2" sqref="S2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2645,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B67EF8C-ED9D-4DA2-9EF2-6069CDD4860C}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3408,4 +3464,1100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EBA7CE-4F47-4DBD-AE3C-ED34C3ED97FE}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="119.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>5500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" t="str">
+        <f>B2</f>
+        <v>Alejandro Gonzalez</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" t="str">
+        <f>C2</f>
+        <v>Calle 5 # 12-34, Barrio San Fernando</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" t="str">
+        <f>D2</f>
+        <v>310-123-4567</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2">
+        <f>E2</f>
+        <v>5500</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" t="str">
+        <f>F2</f>
+        <v>Tocar el Timbre</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U2" t="str">
+        <f>_xlfn.CONCAT(G2:S2)</f>
+        <v>INSERT INTO `arepasdb`.`orders` ( `CustomerId`, `DeliveryFullName`, `DeliveryAddress`, `DeliveryPhoneNumber`, `TotalPrice`, `Notes`) VALUES (1,'Alejandro Gonzalez','Calle 5 # 12-34, Barrio San Fernando','310-123-4567',5500,'Tocar el Timbre');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>19000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="0">A3</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J6" si="1">B3</f>
+        <v>Sofia Herrera</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L6" si="2">C3</f>
+        <v>Avenida 3N # 8-56, Barrio Granada</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N6" si="3">D3</f>
+        <v>311-234-5678</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P6" si="4">E3</f>
+        <v>19000</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R6" si="5">F3</f>
+        <v>Pilas con el Perro que es Bravo</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U6" si="6">_xlfn.CONCAT(G3:S3)</f>
+        <v>INSERT INTO `arepasdb`.`orders` ( `CustomerId`, `DeliveryFullName`, `DeliveryAddress`, `DeliveryPhoneNumber`, `TotalPrice`, `Notes`) VALUES (2,'Sofia Herrera','Avenida 3N # 8-56, Barrio Granada','311-234-5678',19000,'Pilas con el Perro que es Bravo');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>26000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>Mateo Castro</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>Carrera 10 # 23-45, Barrio Santa Teresita</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="3"/>
+        <v>312-345-6789</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>26000</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="5"/>
+        <v>Traer Vuelta de un billete de 50</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `arepasdb`.`orders` ( `CustomerId`, `DeliveryFullName`, `DeliveryAddress`, `DeliveryPhoneNumber`, `TotalPrice`, `Notes`) VALUES (3,'Mateo Castro','Carrera 10 # 23-45, Barrio Santa Teresita','312-345-6789',26000,'Traer Vuelta de un billete de 50');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>18000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>Valentina Vargas</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>Calle 8 # 17-89, Barrio San Antonio</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>313-456-7890</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="5"/>
+        <v>Sin Salsas</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `arepasdb`.`orders` ( `CustomerId`, `DeliveryFullName`, `DeliveryAddress`, `DeliveryPhoneNumber`, `TotalPrice`, `Notes`) VALUES (4,'Valentina Vargas','Calle 8 # 17-89, Barrio San Antonio','313-456-7890',18000,'Sin Salsas');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6">
+        <v>12000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>Sebastian Silva</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>Avenida 6N # 9-87, Barrio El Peñón</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v>314-567-8901</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R6" t="s">
+        <v>158</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `arepasdb`.`orders` ( `CustomerId`, `DeliveryFullName`, `DeliveryAddress`, `DeliveryPhoneNumber`, `TotalPrice`, `Notes`) VALUES (5,'Sebastian Silva','Avenida 6N # 9-87, Barrio El Peñón','314-567-8901',12000,null);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E6FB85-4EC2-426E-8E3D-5BC28FDA42F6}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2">
+        <f>B2</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2">
+        <f>D2</f>
+        <v>2500</v>
+      </c>
+      <c r="M2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" t="str">
+        <f>_xlfn.CONCAT(E2:M2)</f>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (1,2,1,2500);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">A3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">B3</f>
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="2">C3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="3">D3</f>
+        <v>3000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O11" si="4">_xlfn.CONCAT(E3:M3)</f>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (1,4,1,3000);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>12000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (2,7,2,12000);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (2,8,1,7000);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>26000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>26000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (3,13,2,26000);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (4,6,1,5000);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>6000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (4,7,1,6000);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>7000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>207</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (4,8,1,7000);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="M10" t="s">
+        <v>207</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (5,1,2,4000);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>8000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (5,5,2,8000);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25">
+        <v>13000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Proyecto/Data/GenData.xlsx
+++ b/Proyecto/Data/GenData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Proyecto\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F18F11-27B5-47C9-B142-8B6922B08BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC273511-468D-4EF3-93E1-085AD5E07BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{16BA8811-11E7-45E3-9022-F87FA0B716A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{16BA8811-11E7-45E3-9022-F87FA0B716A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -635,9 +635,6 @@
     <t>Tocar el Timbre</t>
   </si>
   <si>
-    <t>Pilas con el Perro que es Bravo</t>
-  </si>
-  <si>
     <t>Traer Vuelta de un billete de 50</t>
   </si>
   <si>
@@ -666,6 +663,9 @@
   </si>
   <si>
     <t>INSERT INTO `arepasdb`.`orderdetails` ( `OrderId`, `ProductId`, `Quantity`, `PriceOrd`) VALUES (</t>
+  </si>
+  <si>
+    <t>Estoy en casa de mi Novia</t>
   </si>
 </sst>
 </file>
@@ -3470,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EBA7CE-4F47-4DBD-AE3C-ED34C3ED97FE}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3552,7 +3552,7 @@
         <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2">
         <f>A2</f>
@@ -3603,10 +3603,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -3618,21 +3618,21 @@
         <v>19000</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="0">A3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>190</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J6" si="1">B3</f>
-        <v>Sofia Herrera</v>
+        <f t="shared" ref="J3:J7" si="1">B3</f>
+        <v>Alejandro Gonzalez</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>152</v>
@@ -3659,15 +3659,15 @@
         <v>190</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R6" si="5">F3</f>
-        <v>Pilas con el Perro que es Bravo</v>
+        <f t="shared" ref="R3:R5" si="5">F3</f>
+        <v>Estoy en casa de mi Novia</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>153</v>
       </c>
       <c r="U3" t="str">
         <f t="shared" ref="U3:U6" si="6">_xlfn.CONCAT(G3:S3)</f>
-        <v>INSERT INTO `arepasdb`.`orders` ( `CustomerId`, `DeliveryFullName`, `DeliveryAddress`, `DeliveryPhoneNumber`, `TotalPrice`, `Notes`) VALUES (2,'Sofia Herrera','Avenida 3N # 8-56, Barrio Granada','311-234-5678',19000,'Pilas con el Perro que es Bravo');</v>
+        <v>INSERT INTO `arepasdb`.`orders` ( `CustomerId`, `DeliveryFullName`, `DeliveryAddress`, `DeliveryPhoneNumber`, `TotalPrice`, `Notes`) VALUES (1,'Alejandro Gonzalez','Avenida 3N # 8-56, Barrio Granada','311-234-5678',19000,'Estoy en casa de mi Novia');</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -3687,10 +3687,10 @@
         <v>26000</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -3756,10 +3756,10 @@
         <v>18000</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -3825,7 +3825,7 @@
         <v>12000</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -3860,13 +3860,13 @@
         <v>12000</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R6" t="s">
         <v>158</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="6"/>
@@ -3882,7 +3882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E6FB85-4EC2-426E-8E3D-5BC28FDA42F6}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -3899,29 +3899,29 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
         <v>201</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>203</v>
       </c>
-      <c r="D1" t="s">
-        <v>204</v>
-      </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" t="s">
         <v>202</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>203</v>
-      </c>
-      <c r="L1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -3938,35 +3938,35 @@
         <v>2500</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2">
         <f>A2</f>
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2">
         <f>B2</f>
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2">
         <f>C2</f>
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2">
         <f>D2</f>
         <v>2500</v>
       </c>
       <c r="M2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O2" t="str">
         <f>_xlfn.CONCAT(E2:M2)</f>
@@ -3987,35 +3987,35 @@
         <v>3000</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" si="0">A3</f>
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">B3</f>
         <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J11" si="2">C3</f>
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L11" si="3">D3</f>
         <v>3000</v>
       </c>
       <c r="M3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O11" si="4">_xlfn.CONCAT(E3:M3)</f>
@@ -4036,35 +4036,35 @@
         <v>12000</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L4">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
       <c r="M4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="4"/>
@@ -4085,35 +4085,35 @@
         <v>7000</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L5">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
       <c r="M5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="4"/>
@@ -4134,35 +4134,35 @@
         <v>26000</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
         <v>26000</v>
       </c>
       <c r="M6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="4"/>
@@ -4183,35 +4183,35 @@
         <v>5000</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="M7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="4"/>
@@ -4232,35 +4232,35 @@
         <v>6000</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="M8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="4"/>
@@ -4281,35 +4281,35 @@
         <v>7000</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
       <c r="M9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="4"/>
@@ -4330,35 +4330,35 @@
         <v>4000</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="M10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="4"/>
@@ -4379,35 +4379,35 @@
         <v>8000</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
       <c r="M11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="4"/>
